--- a/xyz.xlsx
+++ b/xyz.xlsx
@@ -16,8 +16,22 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>dddfgg</t>
+  </si>
+  <si>
+    <t>hhghgghj</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +383,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -383,7 +413,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -395,7 +425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
